--- a/dat/928264621910003723/나비에필로그공개.xlsx
+++ b/dat/928264621910003723/나비에필로그공개.xlsx
@@ -56,16 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>```반갑습니다. 현명한 탐정님.
-나비섬에서의 당신의 활약…… 아주 흥미롭게 보았습니다.```</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>```사건의 전말을 순식간에 파악해 내는 놀라운 능력에 저도, 서포터즈 분들도 적잖이 놀랐습니다. 
-게다가 나대표씨를 회유해 악명 높은 “교수”의 프로젝트를 망쳐 버릴 줄이야……```</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>```교수가 당신 때문에 아주 화가 나 있더군요!```</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,21 +64,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>```제가 항해하는 “바다”에 당신을 초대하고 싶습니다.
-이번에는 탐정 협회 없이, 혼자 와 주셨음 합니다.```</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 “교수” 같은 끔찍한 인간이 아니니 위험한 일이 생길 거라는 걱정은 하지 않으셔도 됩니다.```</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>```물론, 희생자는 생길 수 있지만요!```</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>```그럼, 기다리겠습니다. 
-지금으로부터 일주일 뒤, 해상 레스토랑 “검은 바다” 에서 뵙겠습니다.```</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -98,11 +74,6 @@
   <si>
     <t>```스페셜리스트
 “항해사” 로부터```</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">명한은 핸드폰을 집어넣으며 박탐정에게 말했다.
-현명한: ……탐정님 말이 맞아요. 이대로 주저 앉으면 안될 것 같습니다! 벌써 다음 사건이……기다리고 있습니다.``` </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,6 +130,35 @@
   </si>
   <si>
     <t>현명한: ……그럴까요? 계속해서 생각하게 되요…… 그 때, 그 일기장을 건네 주지 않았더라면, 반군씨가 그 끔찍한 사실을 알게 될 일도, 그리고 어쩌면 자살할 일도 없었을 것이라는 생각…… 그 생각이 자꾸 저를 괴롭혀 왔어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>```제가 항해하는 “바다”에 당신을 초대하고 싶습니다.
+이번에는 탐정 협회 없이, 혼자 와 주셨음 합니다.```</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>```저는 “교수” 같은 끔찍한 인간이 아니니 위험한 일이 생길 거라는 걱정은 하지 않으셔도 됩니다.```</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>```그럼, 기다리겠습니다. 
+지금으로부터 일주일 뒤, 해상 레스토랑 “검은 바다” 에서 뵙겠습니다.```</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>```사건의 전말을 순식간에 파악해 내는 놀라운 능력에 저도, 서포터즈 분들도 적잖이 놀랐습니다. 
+게다가 나대표씨를 회유해 악명 높은 “교수”의 프로젝트를 망쳐 버릴 줄이야……```</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>```반갑습니다. 현명한 탐정님.
+나비섬에서의 당신의 활약…… 아주 흥미롭게 보았습니다.```</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명한은 핸드폰을 집어넣으며 박탐정에게 말했다.
+현명한: ……탐정님 말이 맞아요. 이대로 주저 앉으면 안될 것 같습니다! 벌써 다음 사건이……기다리고 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -565,7 +565,7 @@
     </row>
     <row r="5" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="99" x14ac:dyDescent="0.3">
@@ -590,112 +590,112 @@
     </row>
     <row r="10" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
